--- a/编码进度表-吴正男.xlsx
+++ b/编码进度表-吴正男.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="9947" activeTab="4"/>
+    <workbookView windowWidth="16824" windowHeight="9372" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="吴正男" sheetId="11" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="28">
   <si>
     <t>进度控制表-旅游网的设计与实现</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>管理员登录退出系统</t>
+  </si>
+  <si>
+    <t>之前学到的验证码不字母会</t>
+  </si>
+  <si>
+    <t>刚开始的时候，applicationContext里忘记配置   &lt;property name="mappingResources"&gt;&lt;list&gt; &lt;value&gt; &lt;/value&gt;  &lt;/list&gt; &lt;/property&gt;</t>
   </si>
   <si>
     <t>旅游线路类型增删改查</t>
@@ -90,16 +96,25 @@
   <si>
     <t>查看删除历史订单</t>
   </si>
+  <si>
+    <t>2019.6.25</t>
+  </si>
+  <si>
+    <t>退出没做，登录校验有问题</t>
+  </si>
+  <si>
+    <t>退出系统暂时没做</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -158,6 +173,64 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -178,13 +251,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -192,37 +288,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,70 +334,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -309,39 +368,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -354,26 +389,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -430,31 +445,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,25 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,151 +643,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,6 +745,95 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -754,76 +858,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color indexed="49"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,26 +880,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,15 +898,6 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,196 +954,196 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1149,7 +1164,7 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="42" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="42" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1631,13 +1646,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
@@ -1688,7 +1703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:8">
+    <row r="3" ht="18.75" customHeight="1" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1700,18 +1715,23 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9">
-        <v>43640</v>
+        <v>43641</v>
       </c>
       <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3"/>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:8">
       <c r="A4" s="7"/>
       <c r="B4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9">
         <v>43641</v>
@@ -1725,7 +1745,7 @@
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
       <c r="A5" s="7"/>
       <c r="B5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="9">
         <v>43642</v>
@@ -1739,7 +1759,7 @@
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -1762,10 +1782,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -1779,7 +1799,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -1793,7 +1813,7 @@
     <row r="10" ht="24" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -1807,7 +1827,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -1821,7 +1841,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -1835,7 +1855,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -1849,7 +1869,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -1863,7 +1883,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -1966,7 +1986,7 @@
         <v>43640</v>
       </c>
       <c r="F3" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="12"/>
@@ -1974,7 +1994,7 @@
     <row r="4" ht="18.75" customHeight="1" spans="1:8">
       <c r="A4" s="7"/>
       <c r="B4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9">
         <v>43641</v>
@@ -1988,7 +2008,7 @@
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
       <c r="A5" s="7"/>
       <c r="B5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="9">
         <v>43642</v>
@@ -2002,7 +2022,7 @@
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -2025,10 +2045,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -2042,7 +2062,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -2056,7 +2076,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2070,7 +2090,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2084,7 +2104,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -2098,7 +2118,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -2112,7 +2132,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -2126,7 +2146,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -2157,7 +2177,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2223,10 +2243,10 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9">
-        <v>43640</v>
+        <v>43641</v>
       </c>
       <c r="F3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="12"/>
@@ -2234,21 +2254,23 @@
     <row r="4" ht="18.75" customHeight="1" spans="1:8">
       <c r="A4" s="7"/>
       <c r="B4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9">
         <v>43641</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="10">
+        <v>0.5</v>
+      </c>
       <c r="G4" s="11"/>
       <c r="H4" s="14"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
       <c r="A5" s="7"/>
       <c r="B5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="9">
         <v>43642</v>
@@ -2262,7 +2284,7 @@
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -2285,10 +2307,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -2302,7 +2324,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -2316,7 +2338,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2330,7 +2352,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2344,7 +2366,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -2358,7 +2380,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -2372,7 +2394,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -2386,7 +2408,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -2486,7 +2508,7 @@
         <v>43640</v>
       </c>
       <c r="F3" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="12"/>
@@ -2494,7 +2516,7 @@
     <row r="4" ht="18.75" customHeight="1" spans="1:8">
       <c r="A4" s="7"/>
       <c r="B4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9">
         <v>43641</v>
@@ -2508,7 +2530,7 @@
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
       <c r="A5" s="7"/>
       <c r="B5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="9">
         <v>43642</v>
@@ -2522,7 +2544,7 @@
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -2545,10 +2567,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -2562,7 +2584,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -2576,7 +2598,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2590,7 +2612,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2604,7 +2626,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -2618,7 +2640,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -2632,7 +2654,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -2646,7 +2668,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -2674,13 +2696,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F3 F24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
@@ -2731,7 +2753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:8">
+    <row r="3" ht="18.75" customHeight="1" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -2741,20 +2763,23 @@
       <c r="C3" s="9">
         <v>43640</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9">
-        <v>43640</v>
+      <c r="D3"/>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11"/>
+        <v>0.4</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="12"/>
+      <c r="I3"/>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:8">
       <c r="A4" s="7"/>
       <c r="B4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9">
         <v>43641</v>
@@ -2768,7 +2793,7 @@
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
       <c r="A5" s="7"/>
       <c r="B5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="9">
         <v>43642</v>
@@ -2782,7 +2807,7 @@
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -2805,10 +2830,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -2821,7 +2846,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -2835,7 +2860,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -2849,7 +2874,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -2863,7 +2888,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -2877,7 +2902,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -2891,7 +2916,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -2905,7 +2930,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -2936,7 +2961,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -3001,15 +3026,21 @@
         <v>43640</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="9">
+        <v>43641</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H3" s="12"/>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:8">
       <c r="A4" s="7"/>
       <c r="B4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9">
         <v>43641</v>
@@ -3023,7 +3054,7 @@
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
       <c r="A5" s="7"/>
       <c r="B5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="9">
         <v>43642</v>
@@ -3037,7 +3068,7 @@
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -3060,10 +3091,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -3077,7 +3108,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -3091,7 +3122,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -3105,7 +3136,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -3119,7 +3150,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -3133,7 +3164,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -3147,7 +3178,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -3161,7 +3192,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
@@ -3191,8 +3222,8 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -3257,15 +3288,19 @@
         <v>43640</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="9">
+        <v>43641</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.5</v>
+      </c>
       <c r="G3" s="11"/>
       <c r="H3" s="12"/>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:8">
       <c r="A4" s="7"/>
       <c r="B4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9">
         <v>43641</v>
@@ -3279,7 +3314,7 @@
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
       <c r="A5" s="7"/>
       <c r="B5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="9">
         <v>43642</v>
@@ -3293,7 +3328,7 @@
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9">
         <v>43643</v>
@@ -3316,10 +3351,10 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9">
         <v>43644</v>
@@ -3333,7 +3368,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="9">
         <v>43645</v>
@@ -3347,7 +3382,7 @@
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9">
         <v>43646</v>
@@ -3361,7 +3396,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9">
         <v>43647</v>
@@ -3375,7 +3410,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="19">
         <v>43648</v>
@@ -3389,7 +3424,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" s="19">
         <v>43649</v>
@@ -3403,7 +3438,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19">
         <v>43650</v>
@@ -3417,7 +3452,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="19">
         <v>43651</v>
